--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/27_Düzce_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/27_Düzce_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7516DE74-ED71-4013-A515-B7068FE567E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD82E8E3-879F-4860-B88E-4FEF064E413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07DDB10A-3121-4A2A-B79B-8773BAEB2295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB51957A-1410-4434-B375-3249FA026116}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{A8A7564E-7104-43B6-9877-9374A2B2E934}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{046F7BC1-6FCF-45F4-97F8-5E1ED73C19AE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{C6335430-0533-4BFF-8A66-DDC188AE6604}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{57EE5133-6F77-491D-B06C-D0235E65D6F2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{5176C2CD-9558-4CB7-AA87-7ADC0C6BC00D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{29CDE22C-D397-433C-9174-DAF9495CDA5C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{543531E7-3A39-4FD6-95D5-0F584FAF93B5}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A8237A8A-7D3B-4F3A-BF1D-52FC34849095}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF03C91-9F61-47EC-855A-E9062B21D4F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A070DA-C5A7-42FA-94C4-5BEC2D7A31A2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2429,18 +2429,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3F9EAE74-6156-4B7D-97BD-BDF94555308C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7D5AF524-CF9A-4402-88D5-7C0A4F6EFB44}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3CA2DD09-F2AA-4B75-93B3-95B321166F84}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{858CD89E-5B52-4177-9C52-872A941CBE87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{869C31E1-2829-401A-BEE0-05A1E3DF791D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{081EAB42-1E97-4659-A289-8A0D942E1C04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5B2F4A2B-688D-4325-A889-1C33645310F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CE0C3A57-4A1B-4A7D-A87C-EAB4E5729EC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CFAA480F-8173-47EB-9786-10C98116E666}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{658D5F22-946E-42E3-BBFC-FD24A0DB2824}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E2C92C73-EDD6-481C-810D-7C7D28A5B64B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1113B770-DBC9-4AE3-A2B8-5EA4CB20EDFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F1F6EB4F-968E-4BB7-959C-715B728E10D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{176AF87F-8C01-435D-BE8E-52E5FC105240}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA13A32E-9254-4738-BF3A-EBA8FE8E90BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2356550-F755-4AC4-B14A-26F03A668AB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D189F465-F852-4B10-AFA0-CD3151DBFDC0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04677EAF-BFB1-42E5-86C0-3DAD88FE5E16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B5CE4BEC-77DB-403C-8DB9-FBA2D373ABAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CAA0DAC5-C9BC-4BC6-95A1-A4A573ECD2C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1C729EFC-CDDA-453F-B8C8-0398FA49FFCD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC132EA4-30E0-4DF9-9EFD-C25477A10B5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0400D175-9E42-4246-B3FD-014139E9AA95}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{733008F0-2E1D-411A-91CF-A043D13FED4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2453,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDE03D3-232B-4FDA-99A2-F8301932636C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C07EA8-EA7C-44CE-99E3-42F9D32C6B3F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3626,18 +3626,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA9C6E53-749A-479F-91A3-DD30CA484E51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F4B29040-E05E-46D4-8F6A-213EB2AB01A4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{335C69F5-440F-4AB0-A3A4-0650AFD971D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0DCA783-B828-4C76-BCC8-96ED5B803505}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8A885340-4526-4CAD-92DD-761000682A1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6AD4D59B-DBB3-4F2E-A4CF-AA967778A009}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E991E36-0BED-49D0-9C16-6BD804B571A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{72F8D346-3215-4DB3-B74A-C23C48A93E84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0C20E17F-5EA3-4117-9595-229C9936DFF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98F0304A-4116-494B-A190-F7452151E7D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A319B86-972E-4615-A55C-52EE6FEFD6B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9AF4BB0D-4664-4DE2-9A51-71AF6F4FFE0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4EE7291D-759F-4BCE-AC2C-B3CF259C7454}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6C32EFBE-7DD9-4335-A948-9D2576F780D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9F0E293A-66AD-41E0-A41F-4904E8D599C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92B4D24E-18E2-4D81-906B-F398D3348B64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2D6E401C-E05D-4C9D-9686-BC4C6670FE04}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{88751D7B-CDE9-4218-B6C2-B3DB70182F0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{67CDA88B-8E34-4566-A5DF-B25BB9E3E227}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{36BFB30F-F3A3-4B3A-9498-16A6FBD14D70}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{99E596D5-2486-4A27-816C-5A72021671BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4C2A253F-BBC5-4DDF-B75F-AEE646D1DD46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6158228A-1D16-475C-B30D-54BCE24DA049}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{43BF98D1-58D7-4458-8542-3CFBE2FBA50F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3650,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F109CFFA-B4F1-4DB0-8E04-31844432B22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44034FB9-B4AE-4EB4-9E1C-A88A0B0D201A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4815,18 +4815,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{045CD4B9-E68A-422A-B4B1-114C02B44D6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF727FDF-BB60-46FD-B857-E44749DF34E2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B66BF628-EF49-4DD9-AA31-914C297A57F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1C191895-80E4-4BF1-8D6F-D15AD872F03D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{51CF53B3-0F97-46A3-BB5A-CB5DC275C0F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{643EB16D-986C-4E71-A18F-12F455855C2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9603BA9A-A29E-4192-AFAE-953AF5CA3A7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2A87604C-3505-4D5D-BE68-F61382856852}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{79701C60-744E-4D93-9965-3C936903A0E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9C5FFAC6-9D70-464D-AB59-58A0E91FCC2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{665DE934-46CE-466A-A065-199FFCD5A365}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D5F2DA5E-C5D7-4702-9526-3EE1A584218F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{914F4886-2E36-49CB-97CC-07A93442485E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6CDA208D-98C9-41D1-B748-5C897168A986}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07F95E1A-FE83-48A0-8752-2BF5C8E8E114}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DAEA15CB-3F24-4AF9-93E2-820E17F2C0CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5517E225-F1CE-4CC1-BCCB-FB43EF3EF121}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{60D4B404-8230-4CF6-952F-876FDB5BA940}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C2AFECD5-50F3-4489-8B7A-A4A28E218373}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9D130AC0-C90F-4E91-9894-882C659EB50D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16536A7D-CD9B-44D5-8142-0775945E5E8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D3424574-736E-4236-A307-CA29A282CC59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{213CD7D6-C5B2-4588-B464-C8BE4AF1E221}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{99027433-6926-46BB-870A-A1650434DB38}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4839,7 +4839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F264E5-3D1E-459C-8A63-AAE434A2FC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316A9FE-A129-4F41-9608-38650EE57D70}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5994,18 +5994,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3624F4B0-63CD-4811-827D-CDBF18AE5B7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B0A27ECF-006F-4DA2-B38A-216473CB8EA4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CCF702C-EDF5-4039-8300-5A8D2AD897BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8600DDE5-039C-4841-83FC-F2882704C5A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA5D02F3-6E18-45D4-91B6-C3310B0C600A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3EF1E752-7A64-4BCF-997D-C51867F5ED96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC74D6D5-5D12-4F3D-88AC-9B04E8CD2B2B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F8B5EB8A-C396-4705-A98D-521504E23DF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F76F80A4-6EF7-41B1-8F8C-4921F2D1C149}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A461B35E-380B-4953-AF46-FAFAC0B6ED61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8A44E77A-D247-4850-B831-66CFA36506CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F28F3E6D-42A6-4733-BA25-480529A6CF6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D56A296F-2E66-493E-840D-3D56D37EE7A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC179965-E6E1-4398-A6F0-7ED511BC2048}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9AEC730F-C55F-4B2F-A8BB-7719D2E661D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CBA964A6-0CB3-4DF5-B901-5D578802EFAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{82C48BB2-E1A1-4D98-B095-01F9AA07299F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8F986A84-3724-4C63-80BF-ADF09BE906DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41F7CEC3-5064-406F-9863-01C83FE60E26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8B7C06C5-E6FC-492A-AED7-6FDCB21BEF08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DED12909-403B-45B6-9F65-B4304D468883}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3DD94C5C-19A3-4C3D-B141-9C8AE140EAA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DCE79738-EFC3-4407-8BFC-880BF4B4A4A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{61E3BC6B-85E9-49FB-A1AC-2904646D43FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6018,7 +6018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7A62C-B249-4A39-A0C1-5F808901DC94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B887E7F-F4D7-4394-B2A9-35427E4C4FDD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7213,18 +7213,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BD308801-4202-459A-A4BF-EA75F5A423A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1FAEB3B4-62BF-49A0-A10D-0DF571B2EE14}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{099E1FC4-7D45-42DE-B352-6EC4BB53DA93}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CDB04CFD-4DC3-4F65-8E98-028D837788E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B75BF1AE-BE24-4364-BC87-FEACA7C2888F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E0544128-E60D-4642-ADDB-EA3009644125}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{46515F39-730C-4BEF-9EA4-8490A563C3DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{30396534-C626-489D-97D4-36A69B85E069}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A507C578-E3E6-4EF0-A7DE-6E0744C98F70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{85CFF929-6C02-46BD-BB88-F1B20D7896E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D40CF753-0F4D-4C11-BB1B-2D941F622741}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E33DA928-D304-48C0-B3AA-E78F107FC618}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1462F78A-1F98-4F0C-AA8E-B4083C0002E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9647485-5C86-4FA4-A1C9-D9469232031E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{36DE4F91-C994-46D2-91F0-D9B0012C2A9E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4106DDEF-DA38-41CD-B8DE-E921C8D5BEBA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{60EB0DB8-A239-4035-AA9A-3A2B2F070D1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{686A8A97-5596-4B9A-8B3B-643BFC6ACA52}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6C2BB84-2900-4851-B517-83EE62055D8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{96FEAD0D-CF0D-453F-AA86-B6A20A77294D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D262A4C-8268-4647-B721-203F9F4CBD02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F206C840-F992-4758-8FB8-5F07B5B230AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E108CFC7-86A5-4FA1-BFE6-CE36B1EADE2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1AB5D7E5-F6BF-4663-97B5-5790AA024FFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7237,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB720781-A0B1-46EB-86AE-4AD4E7301DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92833C5B-D6D2-4A42-8CC8-973791D0CB3B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8428,18 +8428,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{19F48753-19EF-481F-B959-BA080212BCE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E6583395-1C69-41E4-A2AB-FF98AC575BB0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CA508B9E-8BA2-4331-86F6-D05BB6F9A27F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D820FDAA-43DC-40FD-A048-2DE0F2686ED4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63576A22-CB4C-4F5A-A2F0-1E7F32DDD73F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{41734523-CE13-4FEF-B789-D1AA1A2DF6A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4477E9DA-289A-479F-B69B-FAC779A1EA6D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AF14CAC2-7D9F-4306-86C5-9F1F9BE5F635}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A65254A7-E922-43C2-A851-B49498538A91}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1AA32772-F728-42AF-959E-878730A95774}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3B57718-C454-49A8-881E-96A47B21B518}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B957870E-F87C-4270-9FA7-C877A0DC9833}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2C19BFB0-CFB0-4829-8298-FB95E65574B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B6B046DA-821B-44E0-819C-4CAB7EC93552}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{907462AE-8499-445B-B0C1-93DF9602E786}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CB81F79C-74DD-4F57-B416-7A506A24CDDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FEF9DA7-AE19-41A7-B4E3-67B84D57CE26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CDACC997-D558-433A-B3E6-1B4BE854855A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F607A79-48F6-44E9-B2BA-5B0A63AAE26F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FB58CAF3-98F8-4B0C-8068-1D5BB9597CEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16105DB8-831E-4DC3-B3D9-AAD1B35C77AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC723ECD-FFB1-4731-B861-300FB2348274}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FC0A81DC-FC3A-4178-AFB1-78CB9F4A150C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0486C32F-5413-4022-B73C-59176B7F3B9B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8452,7 +8452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9A4665-9510-487F-A905-7757B0C1572F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890766E4-569B-452F-A0D9-ACB540EAB069}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9643,18 +9643,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CE350A65-F76E-4810-8B7C-77DEBFB38079}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{17726E60-2B7F-4AA1-A954-9C6A534735D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{97E345DC-349B-48F4-B906-A5C25AC3E45A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92068790-2BFD-4FAE-9683-24B6DAA0080F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8B1F70C6-7D6F-4F11-A5D5-D2963298E71A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{745959A0-C9F0-458C-8EC8-335D6B01BBBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F06723C-B48D-4FA5-B854-0FF974A6E3CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{158A23DB-C51A-4743-BAEF-D1D30BDC401F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E0F7198-8414-442B-8459-36BBE3CC489B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5632F518-EFE4-46E7-8C4D-42B39BC44EA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4436B7F-30CF-4125-842E-D799847E8D37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AA53EE11-136F-4480-8691-B6174B37C6C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7FA22170-E576-447A-8221-D237C14F2159}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5A964845-307D-4E44-A1C6-054AA84E3460}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE29DC19-A63D-4AF7-845A-A47BAC192512}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8AE8A2C2-E479-4BC3-99F7-10334F29E2FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{254EF7AF-7F71-434C-A9F6-5BF0507295C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7A74D00-5066-43E9-91FC-8FC8B2143584}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FBFC6F89-B162-4492-A540-71A12C2B402E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B2407CC0-9C6D-407E-8176-52F1AA707B65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DCAC674-F29F-4ECA-85CF-C411DEBEB994}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5AC9598D-F605-4E44-8D88-D15BEC243A6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{853B4ED2-7AE6-4295-BC53-80D7C5364FD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{14BC6753-AA25-4179-B6C8-0846FCAB2A86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9667,7 +9667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5B0FA-43C0-47DF-8D3E-ABC8C41245FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95986E01-064D-4FFA-ACCD-5553A78DCF00}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10858,18 +10858,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E72D835E-3323-40AE-9B4B-300B585DDF6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E8052933-787A-4046-BD09-3FAE17E424E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DB77381A-5112-48D4-88FB-2092D29B0F49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FFA49196-160A-466F-B671-2C98D95A9DD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A848126C-0AEC-4497-A1B6-309004597635}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B9486B3-CEB1-4414-B7C4-2BB00C35044A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8B5831D8-96BD-4062-84FE-09F1AB50498A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DEAC1FF2-D6D9-487B-8F72-04C02D47873F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E1CD5973-16A8-4E9F-9F89-8E4165F5DE1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{30ED44D8-E54F-4987-9C0C-F371919EEA2F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{58DCB11A-9829-457F-B211-42379F406161}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E8C8FE28-83D7-4165-B41E-3AAEAFCC8258}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E59D38F-7FE2-4E2D-9822-B14825EE1419}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6BB85745-A17E-4365-A23A-B41AE216812E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20871145-AA36-4E9D-92EC-E7A201B1B69C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0D5BEE8D-2ACD-4CFD-8488-85ABB72CB02E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7255733C-6E87-4B4F-992C-796FF54E7F15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{96F29CF1-912C-49E5-BA5F-14A49B8F545C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8766238-A6F6-4594-A0BB-8E50B6CB8F56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0F548EA-D549-424F-A226-0E90E82B292D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0283DBA6-8B00-4338-A9EF-5C27B6373132}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3749F3DD-FA51-4FE7-8826-52CE77B4DD2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1F737660-C11C-41D5-BE9B-2879CF5BBFF8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70A6F858-6849-488D-A46E-95E07A5FB804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10882,7 +10882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3801CF5-3742-44A8-8E69-FAE0B4BB3519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38616CCD-C1B4-42B4-B31D-2BBEAF7BA78F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12069,18 +12069,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F7CD8B0-F794-4358-BB67-5901E8395D6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{52C0DEB4-1BFA-4F83-8616-DBD233E67014}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C70AC07-A408-464D-B65A-35BB40E82635}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A7B7105-5BB8-4AE2-9EE0-D8C5B9275DD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AD5B82AA-B22A-4DB6-9D3D-83C954A32C32}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3D63BD2C-DA51-43E3-A634-628BE0BF0D09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E512F44E-70E0-4290-BA41-4BFFE68871AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{40772800-C904-45C9-9292-7FA286BEDA4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7386CB85-83C7-4964-A3E5-0C1D33BC8A1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D2C1407-2E11-452D-9D16-8BACE74F1246}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17670157-1C03-4795-BE6E-259C42EDF89B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{43FFCE51-238C-4ED3-8A60-B045F5E1DF84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2AFCC6A4-6E12-4905-8E71-575839E1CB5A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3FDBFACE-BE3B-4FF6-AC4A-00A687F86739}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D79E7E2F-6E0C-4103-BA39-3F44549AABE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D8476752-A790-4075-A7B2-1CE8D1EFC5B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3D6F575C-D2F5-49E8-BCFC-43446A3D6966}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F603FA9-8D9F-4F31-8536-169DBE9BC9B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D92BEE9D-DD60-4A81-9CD6-7E5A919593C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{935FB62A-FE2A-423A-A20C-03F1DC9D2CA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBC97E76-AC7E-40A3-BF51-0769236DFA84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9DC63852-6872-429B-9090-21A53253C848}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F7D590E-6B89-43AD-938A-BF1FAE3D9C4F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{85C3920E-4B1C-48A2-8FC5-BF871F06F6D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12093,7 +12093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8DBF9-1EF2-4FAC-9E54-7004559E838A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16314606-B6FB-4033-A376-AC61E5F3B2B9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13280,18 +13280,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9BE555B2-5693-460F-8B5A-A3F831C910A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9C9B5232-0160-4489-AD43-FE13235FFD23}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54716332-C4ED-49CB-A4C5-5CB941C1FE75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{30A1A85D-46F8-451A-9CCF-044BC1FB896C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E5158453-D12F-4BC6-A5A0-FADA6CAA52E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{52C22CE8-759E-460C-B21B-01D95B3619FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E8E77114-6D9B-40A9-A958-C9BEB74E715F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EF22ABDE-D4BD-4A06-AD07-66720315B9B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE488D9F-F78E-4CF7-86FD-B7BEDD540186}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F648574E-9714-4833-902B-D397028FA30A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{440F6824-894B-49FF-AFFF-6F51520E92E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0B5D01D2-4AC9-48C2-A96F-ED7061AE0415}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5AC33FAD-3C08-4F7B-BE1E-D328DD0F1DF5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DEF6F90E-862C-4855-B249-E3307AC712D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CF1FC17A-9B38-4CBC-B1EA-241C80EE1281}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2DBF1070-57CD-4D75-9F44-E09345AEBC95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0CBB828C-40B6-4320-9068-844E7555A144}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7754A69-1560-453E-95EC-83229C0249FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E9831B29-82DA-418C-ABE0-B93FDC65B2F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F62DA9D8-3B1C-4CD8-B1C0-FD8C59E0B2B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80E66F90-CE38-4E72-B5B6-71783F78B18C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49F0EF1A-36C0-4DD5-8867-706013967424}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A5377EF7-B027-44F1-8B03-83F3A631ABB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{270EBDE0-0B87-4118-82B4-C7FC70BE5B5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13304,7 +13304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2856369D-F026-4F1E-A4E9-D8B54F7407D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F1E3E2-339C-4403-A803-ACF3F74B412B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14491,18 +14491,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA5A937A-F9EE-43F3-9F91-C4804E7C7471}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5B2AC89D-90F9-4892-90B5-BE9378AE7F91}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AF5257D4-7C00-4A1F-9E8F-544CEAE7B097}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B3923B8-8D39-46D9-BE39-5959C0AB9511}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{65616432-167D-47CF-97C1-B9D97E489A20}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{22F3144A-C216-4DF8-BD0C-8AA7A41684CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C139F05-96DD-40BC-820E-5D51CFD3D24D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9700D876-5CEF-4F45-8D0F-64217AF3F294}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F31C623-D51E-4E24-A77E-AE069E2FCA9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{243B44F4-4A45-43C3-A4D7-061B4A0BBC1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB9673C7-01D5-4CA6-B8AB-C67C6B12057B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1CAA61D4-B4B6-43D2-B581-DFD5A45F35F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{68782E7C-CA6B-4AE8-B59E-172456FF8752}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C10486EB-692D-43C9-BDD7-0E76AF18CFCE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5EC61CA-125D-4405-8C99-888B6F2F0392}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{29BC8AFC-A1D5-4254-8170-826ED19A4F3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D509CB75-22EA-4C2C-9C65-0B61AE8FE7FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C7C4BB1A-FCD5-4FBA-8E22-7C318F3293BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{38F91070-146A-4E88-A617-E4DF5495129A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FDDEB0C3-33A1-4355-8E5C-48878DCD0FCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{803D1702-973A-4065-8EC4-FAD5176EF244}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4DA82C03-47AA-458B-B071-A4676A725BD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5FBD3878-31EB-4B9B-8633-E2524A8C7A3B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2EDE51D8-D768-4D11-A26A-C35AA88AB1B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14515,7 +14515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD5A9D8-2454-4DA7-ADF1-76224A710032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45738E-845D-41EF-9DB8-F7363C76ABB5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15702,18 +15702,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C859E28-07EC-4C2D-BD20-14FAD879D24D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3444BAF9-79F8-4F27-9A57-2C6BD37EE0D3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AE949490-6F07-484B-96D1-C99A3E75682E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FE62430D-542D-4FA7-A58D-567B9F8DAA2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6215D6AC-0206-42C2-B6FD-F94D5C57C2B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{199F58EB-0810-4B9B-8A58-33BD28A43537}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AFF61CB7-E4BF-4BB5-BAB6-6230907E325A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DD966BC7-22FC-4F0F-8CBF-2FA8EAE4D558}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CDCE69AF-7070-4183-8A94-05E69D883723}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9F283909-A340-4676-948D-5AF5AE202B1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B328BDA-B37E-4C53-9E14-6438FFBBF89D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F54E998D-DC04-4EBA-A948-E8B1B4B9584B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1BAD8C58-16F9-405E-919D-07B9598623C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D19D3A19-59E3-4D8C-8D4A-16B5EFE4F8E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{636246CB-4DCE-476D-B58C-0532F1102CBE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E35D5AE7-F05E-4963-B663-0879A5609862}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B88B3FBE-2253-4153-B797-A2B9A39E43A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{808DB567-551C-4825-B45D-A9A45A344F44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78DD0B3E-716C-431B-B679-84EC76EA4726}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{699F9CB9-7E17-4BDD-98D0-273A3E94BF4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F656AF86-12D0-41C6-BCBF-ABC1DE9E377B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C30A8DE2-DB65-4E03-9965-A932C6591A5A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9D848DC-E107-4301-9818-A5C8F7A914EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E4FE6013-D778-434D-99EC-B7F0015C31CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
